--- a/project_files/files/templates/rep_mtro_generadores.xlsx
+++ b/project_files/files/templates/rep_mtro_generadores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Empresa</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Fecha Activo</t>
+  </si>
+  <si>
+    <t>Tipo de Servicio</t>
+  </si>
+  <si>
+    <t>Tipo de Cobro</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>kilos Integrados</t>
+  </si>
+  <si>
+    <t>Kilo Excedido</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,12 +551,16 @@
     <col min="50" max="50" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,13 +718,25 @@
         <v>25</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
